--- a/PCSAutomation_Activity_Tracker.xlsx
+++ b/PCSAutomation_Activity_Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NIIT\All_Workspace\Full Stack Software Engineering- Term 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NIIT\All_Workspace\Java_Workspace\AllDemo\PCSAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E060C54-D978-4F2F-AA2A-E61679AB4E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209CE2EA-2B75-45A9-986C-71637855BC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Sl No.</t>
   </si>
@@ -55,16 +55,140 @@
   </si>
   <si>
     <t>Deadline</t>
+  </si>
+  <si>
+    <t>12.11.2020</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>ProjectStructure</t>
+  </si>
+  <si>
+    <t>Created Required pacakges with respective class and Database Structure</t>
+  </si>
+  <si>
+    <t>Getters &amp; Setters</t>
+  </si>
+  <si>
+    <t>Completed all coding of 5 model classes</t>
+  </si>
+  <si>
+    <t>JDBC Connectivity</t>
+  </si>
+  <si>
+    <t>Established JDBC connection</t>
+  </si>
+  <si>
+    <t>Inserting methods</t>
+  </si>
+  <si>
+    <t>Created Insert data methods for all the classes</t>
+  </si>
+  <si>
+    <t>Testing get and set methods</t>
+  </si>
+  <si>
+    <t>Connected with Database and inserted and retrived data</t>
+  </si>
+  <si>
+    <t>Functions Implementation</t>
+  </si>
+  <si>
+    <t>Implemented all 5 functions for all packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task Implementation_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented operations or tasks to Employee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task Implementation_2</t>
+  </si>
+  <si>
+    <t>Implemented operations or tasks to Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task Implementation_3</t>
+  </si>
+  <si>
+    <t>Implemented operations or tasks to Job and EmpJob</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task Implementation_4</t>
+  </si>
+  <si>
+    <t>Implemented operations or tasks to EmpSkill</t>
+  </si>
+  <si>
+    <t>Controll Creation</t>
+  </si>
+  <si>
+    <t>Created Controll methods for Employee,Skill,Job Packages</t>
+  </si>
+  <si>
+    <t>Testing Controll methods</t>
+  </si>
+  <si>
+    <t>Tested various tasks via controll method</t>
+  </si>
+  <si>
+    <t>Creation of View Package</t>
+  </si>
+  <si>
+    <t>Created View of HRA,PME and EMP</t>
+  </si>
+  <si>
+    <t>Login Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Login Frame and tested </t>
+  </si>
+  <si>
+    <t>Registration Frame</t>
+  </si>
+  <si>
+    <t>Created and implemented Registartion Frame</t>
+  </si>
+  <si>
+    <t>######</t>
+  </si>
+  <si>
+    <t>Sql query</t>
+  </si>
+  <si>
+    <t>reference variable of sql is not working java</t>
+  </si>
+  <si>
+    <t>changing to normal table</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,14 +211,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3E49F11D-39A9-41A3-8C72-2BEE66F4DC52}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -372,23 +502,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +553,319 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>